--- a/data/trans_camb/P19C09-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,6</t>
+          <t>-0,64; 3,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,28</t>
+          <t>-0,83; 3,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 5,26</t>
+          <t>-2,01; 5,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 3,45</t>
+          <t>-2,57; 3,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,23</t>
+          <t>-0,69; 3,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,66</t>
+          <t>-0,78; 2,79</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,59; 544,54</t>
+          <t>-34,66; 544,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,91; 496,4</t>
+          <t>-48,68; 494,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,5; 414,75</t>
+          <t>-53,01; 419,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,98; 261,98</t>
+          <t>-61,32; 226,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 267,05</t>
+          <t>-30,26; 244,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 247,62</t>
+          <t>-29,65; 210,95</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,08</t>
+          <t>-2,39; 2,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 2,23</t>
+          <t>-2,47; 2,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 5,52</t>
+          <t>-0,54; 5,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,54</t>
+          <t>-1,65; 3,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,32</t>
+          <t>-0,93; 2,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,34</t>
+          <t>-1,23; 2,25</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-82,31; 218,1</t>
+          <t>-81,63; 360,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,07; 339,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 484,45</t>
+          <t>-33,86; 489,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 320,01</t>
+          <t>-48,89; 316,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 292,4</t>
+          <t>-38,71; 213,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,79; 197,96</t>
+          <t>-46,83; 169,85</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,86</t>
+          <t>-3,7; 0,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,7</t>
+          <t>-3,04; 1,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 3,17</t>
+          <t>-3,93; 2,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -0,82</t>
+          <t>-6,9; -0,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,0</t>
+          <t>-3,03; 0,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,87</t>
+          <t>-3,0; 0,79</t>
         </is>
       </c>
     </row>
@@ -1027,17 +1027,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-77,14; 53,56</t>
+          <t>-74,84; 63,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,64; 93,36</t>
+          <t>-65,53; 109,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,39; 377,84</t>
+          <t>-79,78; 316,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,52; 57,33</t>
+          <t>-66,05; 52,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,12; 50,98</t>
+          <t>-73,01; 44,41</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; -0,39</t>
+          <t>-3,12; -0,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,38</t>
+          <t>-1,68; 1,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,04</t>
+          <t>-1,45; 2,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,04</t>
+          <t>-1,4; 2,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,32</t>
+          <t>-1,83; 0,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,2</t>
+          <t>-1,18; 1,21</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-81,26; -14,77</t>
+          <t>-79,84; -9,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 69,25</t>
+          <t>-44,65; 70,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,56; 161,98</t>
+          <t>-51,12; 167,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-48,14; 158,64</t>
+          <t>-49,22; 169,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-59,64; 17,8</t>
+          <t>-58,34; 11,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,91; 59,05</t>
+          <t>-36,67; 59,24</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 0,02</t>
+          <t>-5,46; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 2,48</t>
+          <t>-3,57; 2,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,57</t>
+          <t>-3,82; 0,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,5</t>
+          <t>-2,88; 1,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,85; -0,38</t>
+          <t>-3,51; -0,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,06</t>
+          <t>-2,5; 1,13</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-92,61; 42,76</t>
+          <t>-93,19; 20,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-61,09; 145,3</t>
+          <t>-62,14; 110,8</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-73,75; 33,04</t>
+          <t>-72,76; 32,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-62,99; 70,87</t>
+          <t>-60,95; 66,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-75,15; -10,65</t>
+          <t>-73,97; -6,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,88; 40,19</t>
+          <t>-52,82; 45,27</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,85</t>
+          <t>-3,37; 1,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 6,07</t>
+          <t>-0,63; 5,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,16</t>
+          <t>-3,22; 0,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 0,37</t>
+          <t>-2,89; 0,53</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 0,26</t>
+          <t>-2,86; 0,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,04</t>
+          <t>-2,19; 1,0</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 537,79</t>
+          <t>-100,0; 319,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-37,58; 690,72</t>
+          <t>-31,05; 786,99</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-63,53; 6,95</t>
+          <t>-64,13; 7,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-62,37; 13,22</t>
+          <t>-58,96; 18,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-59,68; 8,98</t>
+          <t>-60,21; 7,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-47,27; 35,48</t>
+          <t>-47,62; 35,07</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,76; -0,09</t>
+          <t>-1,73; -0,11</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,14</t>
+          <t>-0,68; 1,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,54</t>
+          <t>-1,29; 0,58</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,45</t>
+          <t>-1,36; 0,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,03</t>
+          <t>-1,3; -0,07</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 0,54</t>
+          <t>-0,77; 0,5</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-57,12; -3,4</t>
+          <t>-55,9; -3,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 51,25</t>
+          <t>-21,53; 58,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 21,15</t>
+          <t>-35,69; 21,37</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 15,55</t>
+          <t>-38,53; 16,67</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 1,31</t>
+          <t>-39,33; -2,66</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-24,24; 21,37</t>
+          <t>-23,87; 19,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C09-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
